--- a/Libro12.xlsx
+++ b/Libro12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalo.rojas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B3BFEDA-4FBA-4C53-B4D8-5E05F628B1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE690F4C-C173-47C1-A2C0-4202EA734B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BE68E0-53F2-41F9-B64A-3AB9EB9769BF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>a</t>
   </si>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2935FA83-33BB-40D6-B29D-7B3EB56BD670}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A8" sqref="A8:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,6 +483,83 @@
         <v>38081</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>37289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>37289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>37683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>38081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>37289</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
